--- a/data/trans_orig/IP1015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0736BF-FC53-4410-9F1E-B92FB8C30C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{574BF7C1-0351-40DD-A34E-86E97B32DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{81637EA6-BEEE-49D6-A989-7DF5E6B9DFC1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7696EC5A-B95D-4523-9F20-D5420CEF632F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,39 @@
     <t>0,89%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -139,39 +172,6 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -253,6 +253,12 @@
     <t>0,98%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
@@ -281,12 +287,6 @@
   </si>
   <si>
     <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591A46AA-9234-4993-A3D2-B1AF0C6B4FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3332F-B9D8-48A4-81C1-685450FA87B0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1038,49 +1038,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>281498</v>
+        <v>216640</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I7" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>816</v>
+        <v>632</v>
       </c>
       <c r="N7" s="7">
-        <v>547101</v>
+        <v>421862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1089,19 +1089,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1116,22 +1116,22 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1140,10 +1140,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1155,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1170,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1187,55 +1187,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>422</v>
       </c>
       <c r="D10" s="7">
-        <v>216640</v>
+        <v>281498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>816</v>
       </c>
       <c r="N10" s="7">
-        <v>421862</v>
+        <v>547101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,19 +1244,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1271,19 +1271,19 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1295,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1310,10 +1310,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1325,10 +1325,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1511,7 +1511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0775CEE-4E38-460A-B328-375470C7C029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BFE3CD-9C46-4A5E-B43D-5710389E4B78}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1784,49 +1784,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>269060</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I7" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>758</v>
+        <v>651</v>
       </c>
       <c r="N7" s="7">
-        <v>523262</v>
+        <v>468278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,19 +1835,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1862,22 +1862,22 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,10 +1886,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1901,10 +1901,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1916,10 +1916,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1933,55 +1933,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>269060</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>651</v>
+        <v>758</v>
       </c>
       <c r="N10" s="7">
-        <v>468278</v>
+        <v>523262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,19 +1990,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2056,10 +2056,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2071,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2257,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BB4735-30F1-4C34-8386-C5F74F11A05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB8960A-44AB-4F9B-8817-E97B8B3CFF3B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2530,49 +2530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>280911</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="N7" s="7">
-        <v>548681</v>
+        <v>485385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,19 +2581,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -2647,10 +2647,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -2662,10 +2662,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2679,55 +2679,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>250052</v>
+        <v>280911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="N10" s="7">
-        <v>485385</v>
+        <v>548681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,19 +2736,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,10 +2787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2802,10 +2802,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2817,10 +2817,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/IP1015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574BF7C1-0351-40DD-A34E-86E97B32DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8B9796-A964-4EB1-9B57-60750B1A3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7696EC5A-B95D-4523-9F20-D5420CEF632F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{404692AA-70A3-4AB4-BF57-4E9ED2772BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
   <si>
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,313 +67,403 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>99,28%</t>
   </si>
 </sst>
 </file>
@@ -384,7 +474,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -480,39 +570,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -564,7 +654,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -675,13 +765,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -690,6 +773,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -754,19 +844,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3332F-B9D8-48A4-81C1-685450FA87B0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D770F7-17AC-4896-B3DC-9DA8D629F915}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -883,10 +993,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>222488</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -898,85 +1008,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>653</v>
-      </c>
-      <c r="N4" s="7">
-        <v>432684</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>182</v>
+      </c>
+      <c r="D5" s="7">
+        <v>121380</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>673</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>162</v>
+      </c>
+      <c r="I5" s="7">
+        <v>106171</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>344</v>
+      </c>
+      <c r="N5" s="7">
+        <v>227551</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>673</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -985,150 +1095,150 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>216640</v>
+        <v>2074</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2074</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>304</v>
-      </c>
-      <c r="I7" s="7">
-        <v>205222</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>632</v>
-      </c>
-      <c r="N7" s="7">
-        <v>421862</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>1401</v>
+        <v>251682</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>379</v>
+      </c>
+      <c r="I8" s="7">
+        <v>253205</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>758</v>
+      </c>
+      <c r="N8" s="7">
+        <v>504887</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1401</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -1140,49 +1250,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,100 +1303,100 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281498</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>265603</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" s="7">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>547101</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>269063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,153 +1405,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1083</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>720626</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I13" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2101</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1401647</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>2074</v>
+        <v>206049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>596</v>
       </c>
       <c r="N14" s="7">
-        <v>2074</v>
+        <v>400146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,55 +1560,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2074</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2074</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1083</v>
+      </c>
+      <c r="D17" s="7">
+        <v>720626</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I17" s="7">
+        <v>681021</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2101</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1401647</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1511,8 +1782,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BFE3CD-9C46-4A5E-B43D-5710389E4B78}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0A52E7-8D56-4887-BDEF-C9C9508B5D42}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1528,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1629,100 +1900,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>236941</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>224068</v>
+        <v>480</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M4" s="7">
-        <v>671</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>461009</v>
+        <v>480</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>747</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="I5" s="7">
-        <v>480</v>
+        <v>145801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="N5" s="7">
-        <v>1227</v>
+        <v>290314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,153 +2002,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>228178</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
-        <v>651</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>468278</v>
+        <v>747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>266354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>234476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>500829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,49 +2157,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,100 +2210,100 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>269060</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>523262</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>1294</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>448</v>
       </c>
       <c r="N11" s="7">
-        <v>1294</v>
+        <v>313405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,153 +2312,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1063</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>746101</v>
+        <v>1294</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
-        <v>1017</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>706448</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>2080</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1452549</v>
+        <v>1294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="D14" s="7">
-        <v>2041</v>
+        <v>176663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>480</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>503</v>
       </c>
       <c r="N14" s="7">
-        <v>2521</v>
+        <v>348000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,55 +2467,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2041</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>480</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2521</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1063</v>
+      </c>
+      <c r="D17" s="7">
+        <v>746101</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I17" s="7">
+        <v>706448</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2080</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1452549</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2257,8 +2689,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB8960A-44AB-4F9B-8817-E97B8B3CFF3B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8AED2E-0752-4AEE-956F-886F53520EBD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2274,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2375,10 +2807,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>212517</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2387,88 +2819,88 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>413785</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>646</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>646</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,153 +2909,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
-        <v>723</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>485385</v>
+        <v>646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>257415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>210517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>467932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,49 +3064,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,100 +3117,100 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>280911</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>548681</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>718</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="N11" s="7">
-        <v>718</v>
+        <v>377471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,153 +3219,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1063</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>743480</v>
+        <v>718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
-        <v>2124</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1447851</v>
+        <v>718</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>1364</v>
+        <v>173330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>480</v>
       </c>
       <c r="N14" s="7">
-        <v>1364</v>
+        <v>346630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,55 +3374,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1364</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1364</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1063</v>
+      </c>
+      <c r="D17" s="7">
+        <v>743480</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="I17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2124</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1447851</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8B9796-A964-4EB1-9B57-60750B1A3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A222D9EB-C9DF-4BE7-A0A0-25D2D97D8BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{404692AA-70A3-4AB4-BF57-4E9ED2772BEA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E7D737B-F2BD-4EC4-9083-57914377EC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="140">
   <si>
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,252 +112,252 @@
     <t>0,82%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>99,26%</t>
   </si>
   <si>
@@ -367,13 +367,13 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -391,7 +391,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,58%</t>
@@ -400,13 +400,13 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,76%</t>
+    <t>98,56%</t>
   </si>
   <si>
     <t>99,42%</t>
@@ -415,22 +415,16 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,37%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>2,08%</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -442,7 +436,7 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>97,67%</t>
+    <t>97,92%</t>
   </si>
   <si>
     <t>99,22%</t>
@@ -457,13 +451,13 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,3%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,28%</t>
+    <t>99,7%</t>
   </si>
 </sst>
 </file>
@@ -875,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D770F7-17AC-4896-B3DC-9DA8D629F915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DA822C-9A32-4A29-A221-45761BE377F6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1157,10 +1151,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1175,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -1184,13 +1178,13 @@
         <v>2074</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,13 +1199,13 @@
         <v>251682</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>379</v>
@@ -1223,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -1235,13 +1229,13 @@
         <v>504887</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,7 +1291,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1315,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1330,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1345,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,7 +1357,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1378,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1393,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1452,7 +1446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1470,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1485,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1500,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,7 +1512,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1533,7 +1527,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1548,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1619,13 +1613,13 @@
         <v>2074</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1640,7 +1634,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1649,13 +1643,13 @@
         <v>2074</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1664,13 @@
         <v>720626</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>1018</v>
@@ -1688,7 +1682,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1700,13 +1694,13 @@
         <v>1401647</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,7 +1756,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0A52E7-8D56-4887-BDEF-C9C9508B5D42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A589C1B-29DA-42F5-B0D8-68AB243173A4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1799,7 +1793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1912,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1921,13 +1915,13 @@
         <v>480</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -1936,13 +1930,13 @@
         <v>480</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,7 +1954,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -1972,10 +1966,10 @@
         <v>145801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -1987,10 +1981,10 @@
         <v>290314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2061,13 +2055,13 @@
         <v>747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2082,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2091,13 +2085,13 @@
         <v>747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,10 +2106,10 @@
         <v>266354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2130,7 +2124,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2142,10 +2136,10 @@
         <v>500829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2204,7 +2198,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2222,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2237,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2252,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2264,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2285,7 +2279,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2300,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2359,7 +2353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2371,13 +2365,13 @@
         <v>1294</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2392,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2401,13 +2395,13 @@
         <v>1294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,10 +2416,10 @@
         <v>176663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2440,7 +2434,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2452,10 +2446,10 @@
         <v>348000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2526,13 +2520,13 @@
         <v>2041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2541,13 +2535,13 @@
         <v>480</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2556,13 +2550,13 @@
         <v>2521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2571,7 @@
         <v>746101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>106</v>
@@ -2607,13 +2601,13 @@
         <v>1452549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2663,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8AED2E-0752-4AEE-956F-886F53520EBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0B8F87-E1CF-45A2-B3C9-74E4FD0B223E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3111,7 +3105,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3129,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3159,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3171,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3192,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3207,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3266,7 +3260,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3278,13 +3272,13 @@
         <v>718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3299,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3308,13 +3302,13 @@
         <v>718</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,10 +3323,10 @@
         <v>173330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3347,7 +3341,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3359,10 +3353,10 @@
         <v>346630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3433,13 +3427,13 @@
         <v>1364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3454,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3463,13 +3457,13 @@
         <v>1364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,10 +3478,10 @@
         <v>743480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3502,7 +3496,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3514,10 +3508,10 @@
         <v>1447851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3576,7 +3570,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A222D9EB-C9DF-4BE7-A0A0-25D2D97D8BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{768F2245-322F-497E-BDAE-E20E51A591C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E7D737B-F2BD-4EC4-9083-57914377EC9F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A0C68096-9462-41DD-94F7-4D4EA6D544E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,28 +94,31 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -124,22 +127,25 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,78%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -148,55 +154,55 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,29%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -205,259 +211,253 @@
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,96%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,7%</t>
+    <t>99,35%</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DA822C-9A32-4A29-A221-45761BE377F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2446E7-8EE3-40C0-9842-69E1FF0816D1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1038,10 +1038,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1053,10 +1053,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1089,25 +1089,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1142,34 +1142,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2074</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -1178,13 +1178,13 @@
         <v>2074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,31 +1196,31 @@
         <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>251682</v>
+        <v>253205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>379</v>
       </c>
       <c r="I8" s="7">
-        <v>253205</v>
+        <v>251682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -1229,13 +1229,13 @@
         <v>504887</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,25 +1244,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,31 +1348,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>212</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141515</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1387,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1399,25 +1399,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1464,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,31 +1503,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>286</v>
+      </c>
+      <c r="D14" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>310</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>206049</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>286</v>
-      </c>
-      <c r="I14" s="7">
-        <v>194097</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1542,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1554,25 +1554,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1607,34 +1607,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2074</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>2074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,34 +1658,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D17" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1083</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>720626</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="7">
-        <v>681021</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>2101</v>
@@ -1694,13 +1694,13 @@
         <v>1401647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,25 +1709,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A589C1B-29DA-42F5-B0D8-68AB243173A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054BE7A9-73F7-4CA7-BCF3-FB421C4545A1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1793,7 +1793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1894,34 +1894,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>480</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -1930,13 +1930,13 @@
         <v>480</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,34 +1945,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>217</v>
+      </c>
+      <c r="D5" s="7">
+        <v>145801</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>205</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>144513</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>217</v>
-      </c>
-      <c r="I5" s="7">
-        <v>145801</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>422</v>
@@ -1981,10 +1981,10 @@
         <v>290314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -1996,25 +1996,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2049,34 +2049,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>747</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2085,13 +2085,13 @@
         <v>747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,34 +2100,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>337</v>
+      </c>
+      <c r="D8" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>370</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>266354</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>337</v>
-      </c>
-      <c r="I8" s="7">
-        <v>234476</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>707</v>
@@ -2136,10 +2136,10 @@
         <v>500829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2151,25 +2151,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2216,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,31 +2255,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>228</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158571</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>220</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154834</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2294,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2306,25 +2306,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2353,40 +2353,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1294</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2395,13 +2395,13 @@
         <v>1294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,34 +2410,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>260</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>176663</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -2446,10 +2446,10 @@
         <v>348000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2461,25 +2461,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2514,34 +2514,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>480</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2041</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>480</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2550,13 +2550,13 @@
         <v>2521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,34 +2565,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="7">
+        <v>706448</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1063</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>746101</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706448</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>2080</v>
@@ -2601,13 +2601,13 @@
         <v>1452549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,25 +2616,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0B8F87-E1CF-45A2-B3C9-74E4FD0B223E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DF548E-6EB2-45CD-8971-AC1AE1D116F9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,10 +2852,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7">
-        <v>124164</v>
+        <v>131654</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2867,10 +2867,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="I5" s="7">
-        <v>131654</v>
+        <v>124164</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -2891,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2903,25 +2903,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2956,31 +2956,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>646</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>118</v>
@@ -3007,34 +3007,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>257415</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>210517</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>711</v>
@@ -3058,25 +3058,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3123,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,31 +3162,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>263</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>188572</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3201,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3213,25 +3213,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3260,40 +3260,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>718</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3302,13 +3302,13 @@
         <v>718</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,34 +3317,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>234</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>173330</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173301</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -3368,25 +3368,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3421,34 +3421,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1364</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3457,13 +3457,13 @@
         <v>1364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,34 +3472,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1063</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>743480</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>2124</v>
@@ -3508,10 +3508,10 @@
         <v>1447851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3523,25 +3523,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
